--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/DISTRICT_OF_COLUMBIA_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/DISTRICT_OF_COLUMBIA_2014.xlsx
@@ -470,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -483,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -496,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -509,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -682,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -695,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -708,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -721,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -734,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -747,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -760,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -773,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -786,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -799,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -812,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -825,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -910,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -923,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -936,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -949,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -962,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -975,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -988,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -1001,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1014,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1027,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1040,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -1053,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1066,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1079,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1164,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -1177,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1190,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1203,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1216,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1229,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1242,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1255,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1268,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1281,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1294,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1307,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1320,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1333,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1346,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1359,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -1372,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1385,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1398,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -1447,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -1496,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1509,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -1522,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1535,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1584,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1597,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1646,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1659,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -1672,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1685,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1698,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1711,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Totolapan</t>
@@ -1724,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -1809,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1822,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Juchitán De Zaragoza</t>
@@ -1835,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Magdalena Apasco</t>
@@ -1848,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1861,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Felipe Tejalápam</t>
@@ -1874,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Francisco Telixtlahuaca</t>
@@ -1887,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>San José Chiltepec</t>
@@ -1900,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -1913,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1926,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1939,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1952,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1965,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Santiago Matatlán</t>
@@ -1978,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Santo Domingo Yanhuitlán</t>
@@ -1991,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -2040,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -2053,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -2066,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -2079,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>General Felipe Ángeles</t>
@@ -2092,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -2105,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -2118,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -2131,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -2144,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -2157,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Ixcamilpa De Guerrero</t>
@@ -2170,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -2183,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -2196,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -2209,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Nopalucan</t>
@@ -2222,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -2235,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2248,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -2261,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -2274,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -2287,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2300,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2313,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -2326,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -2339,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2352,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -2365,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2378,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2391,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2404,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -2453,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2646,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -2659,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -2672,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -2685,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -2734,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -2747,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -2760,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -2773,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -2786,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2799,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2812,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2825,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2838,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -2851,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Temapache</t>
@@ -2864,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2877,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -2890,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2903,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2916,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Yanga</t>
